--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Customer Party Name</t>
   </si>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>RES_DEALER2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业微信ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是总代或者单干</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -638,9 +646,11 @@
     <col min="1" max="1" width="55.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,8 +660,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -661,8 +677,14 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -672,8 +694,11 @@
       <c r="C3" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -683,8 +708,11 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -694,8 +722,11 @@
       <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -705,8 +736,11 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -716,8 +750,11 @@
       <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -727,8 +764,11 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -738,8 +778,11 @@
       <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -749,8 +792,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -760,8 +806,11 @@
       <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -771,8 +820,11 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -782,8 +834,14 @@
       <c r="C13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -793,8 +851,14 @@
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -804,8 +868,14 @@
       <c r="C15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -815,8 +885,11 @@
       <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -826,8 +899,11 @@
       <c r="C17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -837,8 +913,11 @@
       <c r="C18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -848,8 +927,11 @@
       <c r="C19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -859,8 +941,11 @@
       <c r="C20" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -870,8 +955,11 @@
       <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -881,8 +969,11 @@
       <c r="C22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -892,8 +983,11 @@
       <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -903,8 +997,11 @@
       <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -914,8 +1011,11 @@
       <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -925,8 +1025,11 @@
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -936,8 +1039,11 @@
       <c r="C27" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -947,8 +1053,11 @@
       <c r="C28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -958,8 +1067,11 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -968,6 +1080,9 @@
       </c>
       <c r="C30" t="s">
         <v>65</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Customer Party Name</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>是否是总代或者单干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示维保政策</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -650,7 +658,7 @@
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +674,14 @@
       <c r="E1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -683,8 +697,14 @@
       <c r="E2">
         <v>2869</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -697,8 +717,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -711,8 +734,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -726,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -740,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -754,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -768,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -782,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -796,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -810,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -823,8 +849,14 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>2981</v>
+      </c>
+      <c r="F12">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -838,10 +870,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2870</v>
+      </c>
+      <c r="F13">
+        <v>333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -855,10 +890,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2871</v>
+      </c>
+      <c r="F14">
+        <v>444444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -872,10 +910,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2872</v>
+      </c>
+      <c r="F15">
+        <v>555555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>

--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -225,15 +225,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否是总代或者单干</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>显示维保政策</t>
+    <t>显示零售政策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是总代或者二代（总代1二代0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
     <col min="1" max="1" width="55.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -669,16 +669,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -646,7 +646,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -695,12 +695,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2869</v>
+        <v>3195</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -717,8 +717,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -849,12 +849,6 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>2981</v>
-      </c>
-      <c r="F12">
-        <v>222222</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -869,12 +863,6 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>2870</v>
-      </c>
-      <c r="F13">
-        <v>333333</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -889,12 +877,6 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>2871</v>
-      </c>
-      <c r="F14">
-        <v>444444</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -908,12 +890,6 @@
       </c>
       <c r="D15">
         <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2872</v>
-      </c>
-      <c r="F15">
-        <v>555555</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/webapp/WEB-INF/classes/data/customer.xlsx
+++ b/src/main/webapp/WEB-INF/classes/data/customer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Customer Party Name</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>customer type</t>
-  </si>
-  <si>
-    <t>Sichuan Min Sheng Mechanical &amp; Electrical Equipment Co., Ltd</t>
-  </si>
-  <si>
-    <t>47466</t>
   </si>
   <si>
     <t>BEIJING STAND CO., LTD</t>
@@ -234,6 +228,10 @@
   </si>
   <si>
     <t>是否是总代或者二代（总代1二代0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sichuan Min Sheng Mechanical &amp; Electrical Equipment Co., Ltd2222</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -669,50 +670,41 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="8">
+        <v>47466</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>3195</v>
-      </c>
-      <c r="F2">
-        <v>123456</v>
-      </c>
-      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -723,13 +715,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -740,13 +732,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -754,13 +746,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -768,13 +760,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -782,13 +774,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -796,13 +788,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -810,13 +802,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -824,13 +816,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -838,13 +830,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -852,13 +844,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -866,13 +858,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,13 +872,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -894,13 +886,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -908,13 +900,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -922,13 +914,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -936,13 +928,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -950,13 +942,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -964,13 +956,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -978,13 +970,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -992,13 +984,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1006,13 +998,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1020,13 +1012,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1034,13 +1026,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1048,13 +1040,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1062,13 +1054,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1076,13 +1068,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1090,17 +1082,21 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -1127,11 +1123,7 @@
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A45" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C30"/>
